--- a/client/public/1.3.2.xlsx
+++ b/client/public/1.3.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -51,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,42 +171,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -285,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,6 +337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,130 +513,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="22.5703125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="60">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC8C" sheet="1" objects="1" scenarios="1" insertRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:G4"/>
@@ -627,24 +664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
